--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Biblioteca Digital\Documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Biblioteca Digital\Gestao-de-Biblioteca\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Interface" sheetId="1" r:id="rId1"/>
+    <sheet name="php" sheetId="3" r:id="rId2"/>
+    <sheet name="Base de dados" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Paginas</t>
   </si>
@@ -41,9 +43,6 @@
     <t>pagina inicial</t>
   </si>
   <si>
-    <t>requerer livros</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -51,6 +50,51 @@
   </si>
   <si>
     <t>feito</t>
+  </si>
+  <si>
+    <t>cadastro  de livros</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin/estudante</t>
+  </si>
+  <si>
+    <t>catalogo de livros</t>
+  </si>
+  <si>
+    <t>painel admin</t>
+  </si>
+  <si>
+    <t>cadastro  de estudante</t>
+  </si>
+  <si>
+    <t>cadastro de admin</t>
+  </si>
+  <si>
+    <t>por melhorar</t>
+  </si>
+  <si>
+    <t>lista de requisicoes</t>
+  </si>
+  <si>
+    <t>desenvolvedor</t>
+  </si>
+  <si>
+    <t>chelene</t>
+  </si>
+  <si>
+    <t>livros online</t>
+  </si>
+  <si>
+    <t>folege</t>
+  </si>
+  <si>
+    <t>gabriel</t>
+  </si>
+  <si>
+    <t>jossias</t>
   </si>
 </sst>
 </file>
@@ -391,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,11 +447,12 @@
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -418,44 +463,148 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Biblioteca Digital\Gestao-de-Biblioteca\Documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestao-de-Biblioteca\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Paginas</t>
   </si>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +111,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -150,11 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +447,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,6 +504,9 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
@@ -517,6 +529,9 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
@@ -542,6 +557,9 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
@@ -552,6 +570,9 @@
       </c>
       <c r="B9" t="s">
         <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Paginas</t>
   </si>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +518,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
@@ -584,6 +587,9 @@
       </c>
       <c r="B10" t="s">
         <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestao-de-Biblioteca\Documentacao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="php" sheetId="3" r:id="rId2"/>
     <sheet name="Base de dados" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Paginas</t>
   </si>
@@ -95,6 +90,15 @@
   </si>
   <si>
     <t>jossias</t>
+  </si>
+  <si>
+    <t>outros</t>
+  </si>
+  <si>
+    <t>foto de perfil para admin</t>
+  </si>
+  <si>
+    <t>foto de perfil do estudante</t>
   </si>
 </sst>
 </file>
@@ -436,7 +440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +608,21 @@
       </c>
       <c r="E11" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Paginas</t>
   </si>
@@ -92,20 +92,53 @@
     <t>jossias</t>
   </si>
   <si>
-    <t>outros</t>
-  </si>
-  <si>
-    <t>foto de perfil para admin</t>
-  </si>
-  <si>
-    <t>foto de perfil do estudante</t>
+    <t>plugin da foto de perfil para admin</t>
+  </si>
+  <si>
+    <t>plugin da foto de perfil do estudante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta campo senha e confirmar senha  no registo do estudante </t>
+  </si>
+  <si>
+    <t>cabecalho autenticado e do visitante no user</t>
+  </si>
+  <si>
+    <t>validar formularios do admin (registar funcionario, adicionar livro, etc)</t>
+  </si>
+  <si>
+    <t>lista de estudantes cadastrados</t>
+  </si>
+  <si>
+    <t>estatisticas do painel de controle</t>
+  </si>
+  <si>
+    <t>validar campo de confirmacao de senha</t>
+  </si>
+  <si>
+    <t>fazer perfil do admin</t>
+  </si>
+  <si>
+    <t>melhorar interfaces de requisicoes no admin</t>
+  </si>
+  <si>
+    <t>construir interfaces para gerir exemplares emprestados e disponiveis</t>
+  </si>
+  <si>
+    <t>plugin para fazer paginacao em catalogo de livros no user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por fazer </t>
+  </si>
+  <si>
+    <t>foto de perfil no user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +162,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,12 +207,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,22 +658,82 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:C17"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -21,77 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Paginas</t>
   </si>
   <si>
-    <t>mockups</t>
-  </si>
-  <si>
-    <t>interface</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>pagina inicial</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Estudante</t>
-  </si>
-  <si>
-    <t>feito</t>
-  </si>
-  <si>
-    <t>cadastro  de livros</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin/estudante</t>
-  </si>
-  <si>
-    <t>catalogo de livros</t>
-  </si>
-  <si>
-    <t>painel admin</t>
-  </si>
-  <si>
-    <t>cadastro  de estudante</t>
-  </si>
-  <si>
-    <t>cadastro de admin</t>
-  </si>
-  <si>
-    <t>por melhorar</t>
-  </si>
-  <si>
-    <t>lista de requisicoes</t>
-  </si>
-  <si>
     <t>desenvolvedor</t>
   </si>
   <si>
     <t>chelene</t>
   </si>
   <si>
-    <t>livros online</t>
-  </si>
-  <si>
-    <t>folege</t>
-  </si>
-  <si>
-    <t>gabriel</t>
-  </si>
-  <si>
-    <t>jossias</t>
-  </si>
-  <si>
     <t>plugin da foto de perfil para admin</t>
   </si>
   <si>
@@ -104,24 +44,6 @@
     <t>cabecalho autenticado e do visitante no user</t>
   </si>
   <si>
-    <t>validar formularios do admin (registar funcionario, adicionar livro, etc)</t>
-  </si>
-  <si>
-    <t>lista de estudantes cadastrados</t>
-  </si>
-  <si>
-    <t>estatisticas do painel de controle</t>
-  </si>
-  <si>
-    <t>validar campo de confirmacao de senha</t>
-  </si>
-  <si>
-    <t>fazer perfil do admin</t>
-  </si>
-  <si>
-    <t>melhorar interfaces de requisicoes no admin</t>
-  </si>
-  <si>
     <t>construir interfaces para gerir exemplares emprestados e disponiveis</t>
   </si>
   <si>
@@ -132,6 +54,96 @@
   </si>
   <si>
     <t>foto de perfil no user</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>Modulos</t>
+  </si>
+  <si>
+    <t>Mockup</t>
+  </si>
+  <si>
+    <t>Interface(html 5, css 3 e js)</t>
+  </si>
+  <si>
+    <t>Livro</t>
+  </si>
+  <si>
+    <t>pagina inicial - user</t>
+  </si>
+  <si>
+    <t>catalogo de livros - user</t>
+  </si>
+  <si>
+    <t>sobre-nos - user</t>
+  </si>
+  <si>
+    <t>lita de livros - admin</t>
+  </si>
+  <si>
+    <t>adicionar, editar  livro - admin</t>
+  </si>
+  <si>
+    <t>campos de pesquisa de livros - user</t>
+  </si>
+  <si>
+    <t>Validacao</t>
+  </si>
+  <si>
+    <t>estudante</t>
+  </si>
+  <si>
+    <t>contacte-nos - user</t>
+  </si>
+  <si>
+    <t>loigin - user</t>
+  </si>
+  <si>
+    <t>cadastro - user</t>
+  </si>
+  <si>
+    <t>caixa de livros - user</t>
+  </si>
+  <si>
+    <t>perfil - user</t>
+  </si>
+  <si>
+    <t>lista de estudantes - admin</t>
+  </si>
+  <si>
+    <t>gerir requisicoes de livros - admin</t>
+  </si>
+  <si>
+    <t>funcionario</t>
+  </si>
+  <si>
+    <t>login - admin</t>
+  </si>
+  <si>
+    <t>lista de funcionarios - admin</t>
+  </si>
+  <si>
+    <t>registar funcionarios - admin</t>
+  </si>
+  <si>
+    <t>perfil - admin</t>
+  </si>
+  <si>
+    <t>gerir registros de login/longout  -admin</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>painel de controle(estatisticas) - admin</t>
   </si>
 </sst>
 </file>
@@ -140,14 +152,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -168,8 +172,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,18 +196,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,24 +209,278 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -488,7 +748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,244 +756,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A17:C17"/>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:F20">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="pm">
+      <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="u">
+      <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="ep">
+      <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Interface" sheetId="1" r:id="rId1"/>
-    <sheet name="php" sheetId="3" r:id="rId2"/>
+    <sheet name="front-end" sheetId="1" r:id="rId1"/>
+    <sheet name="back-end" sheetId="3" r:id="rId2"/>
     <sheet name="Base de dados" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
   <si>
     <t>Paginas</t>
   </si>
@@ -144,13 +144,52 @@
   </si>
   <si>
     <t>painel de controle(estatisticas) - admin</t>
+  </si>
+  <si>
+    <t>ep</t>
+  </si>
+  <si>
+    <t>jossias</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>legenda</t>
+  </si>
+  <si>
+    <t>u - uregente</t>
+  </si>
+  <si>
+    <t>ep - em progresso</t>
+  </si>
+  <si>
+    <t>pm - por melhorar</t>
+  </si>
+  <si>
+    <t>nt - nao tem</t>
+  </si>
+  <si>
+    <t>f - feito</t>
+  </si>
+  <si>
+    <t>gabriel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +219,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +243,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,31 +338,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="143">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -357,7 +436,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -371,6 +450,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -378,6 +492,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -399,6 +534,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -406,6 +548,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -413,6 +590,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -441,6 +639,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -456,6 +675,678 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -748,7 +1639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -756,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,58 +1691,58 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4"/>
       <c r="I2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
       <c r="I3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="I4" t="s">
         <v>5</v>
       </c>
@@ -860,18 +1751,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="I5" t="s">
         <v>6</v>
       </c>
@@ -880,215 +1771,261 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="I6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="I7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="10"/>
       <c r="I8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1097,31 +2034,31 @@
     <mergeCell ref="A15:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:F20">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1132,24 +2069,622 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C20">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="pm">
+      <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="u">
+      <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="ep">
+      <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D20">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="pm">
+      <formula>NOT(ISERROR(SEARCH("pm",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="u">
+      <formula>NOT(ISERROR(SEARCH("u",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="ep">
+      <formula>NOT(ISERROR(SEARCH("ep",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E20">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="pm">
+      <formula>NOT(ISERROR(SEARCH("pm",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="u">
+      <formula>NOT(ISERROR(SEARCH("u",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="ep">
+      <formula>NOT(ISERROR(SEARCH("ep",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F20">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="pm">
+      <formula>NOT(ISERROR(SEARCH("pm",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="u">
+      <formula>NOT(ISERROR(SEARCH("u",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="ep">
+      <formula>NOT(ISERROR(SEARCH("ep",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"EP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G20">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="pm">
+      <formula>NOT(ISERROR(SEARCH("pm",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="u">
+      <formula>NOT(ISERROR(SEARCH("u",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="f">
+      <formula>NOT(ISERROR(SEARCH("f",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="ep">
+      <formula>NOT(ISERROR(SEARCH("ep",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:G20">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="nt">
+      <formula>NOT(ISERROR(SEARCH("nt",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"nt"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F9:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="17"/>
+    </row>
+    <row r="10" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+    </row>
+    <row r="11" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+    </row>
+    <row r="12" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F9:P13"/>
+    <mergeCell ref="Q9:R13"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
   <si>
     <t>Paginas</t>
   </si>
@@ -29,33 +29,12 @@
     <t>desenvolvedor</t>
   </si>
   <si>
-    <t>chelene</t>
-  </si>
-  <si>
-    <t>plugin da foto de perfil para admin</t>
-  </si>
-  <si>
-    <t>plugin da foto de perfil do estudante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">falta campo senha e confirmar senha  no registo do estudante </t>
-  </si>
-  <si>
-    <t>cabecalho autenticado e do visitante no user</t>
-  </si>
-  <si>
     <t>construir interfaces para gerir exemplares emprestados e disponiveis</t>
   </si>
   <si>
-    <t>plugin para fazer paginacao em catalogo de livros no user</t>
-  </si>
-  <si>
     <t xml:space="preserve">por fazer </t>
   </si>
   <si>
-    <t>foto de perfil no user</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
@@ -149,9 +128,6 @@
     <t>ep</t>
   </si>
   <si>
-    <t>jossias</t>
-  </si>
-  <si>
     <t>read</t>
   </si>
   <si>
@@ -183,6 +159,9 @@
   </si>
   <si>
     <t>gabriel</t>
+  </si>
+  <si>
+    <t>u endereco?</t>
   </si>
 </sst>
 </file>
@@ -346,6 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,18 +338,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -381,699 +388,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1639,7 +953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1649,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,365 +980,340 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>17</v>
+      <c r="A2" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>25</v>
+      <c r="A8" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>42</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>33</v>
+      <c r="A15" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>47</v>
+      <c r="B23" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2034,31 +1323,31 @@
     <mergeCell ref="A15:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:F20">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2071,7 +1360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2086,92 +1375,92 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>47</v>
+      <c r="J1" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>17</v>
+      <c r="A2" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4"/>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4"/>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2179,136 +1468,136 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>25</v>
+      <c r="A8" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2316,95 +1605,95 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>33</v>
+      <c r="A15" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2412,19 +1701,19 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -2435,155 +1724,155 @@
     <mergeCell ref="A15:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C20">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E20">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G20">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:G20">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="nt">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="nt">
       <formula>NOT(ISERROR(SEARCH("nt",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"nt"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2602,83 +1891,83 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="R9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
     </row>
     <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
     </row>
     <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestao-de-Biblioteca\Documentacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="48">
   <si>
     <t>Paginas</t>
   </si>
@@ -41,9 +46,6 @@
     <t>f</t>
   </si>
   <si>
-    <t>pm</t>
-  </si>
-  <si>
     <t>Modulos</t>
   </si>
   <si>
@@ -158,10 +160,16 @@
     <t>f - feito</t>
   </si>
   <si>
-    <t>gabriel</t>
-  </si>
-  <si>
     <t>u endereco?</t>
+  </si>
+  <si>
+    <t>chelene</t>
+  </si>
+  <si>
+    <t>joss</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
 </sst>
 </file>
@@ -227,13 +235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,17 +346,451 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="110">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -953,7 +1395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -964,7 +1406,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,19 +1422,19 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1006,10 +1448,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -1018,14 +1460,14 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -1041,30 +1483,32 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J5" t="s">
         <v>5</v>
       </c>
@@ -1072,16 +1516,18 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="I6" t="s">
         <v>2</v>
       </c>
@@ -1089,7 +1535,7 @@
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
@@ -1102,38 +1548,38 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
@@ -1147,7 +1593,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
@@ -1157,13 +1603,13 @@
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
@@ -1173,13 +1619,13 @@
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
@@ -1193,23 +1639,23 @@
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
@@ -1223,19 +1669,23 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
@@ -1249,21 +1699,21 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -1277,43 +1727,45 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1323,31 +1775,31 @@
     <mergeCell ref="A15:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:F20">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="106" priority="1" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="105" priority="2" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="103" priority="4" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1361,7 +1813,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,92 +1827,92 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4"/>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4"/>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1468,254 +1920,254 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="G20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1724,155 +2176,155 @@
     <mergeCell ref="A15:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="37" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="36" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="35" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C20">
-    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="99" priority="31" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="98" priority="32" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="97" priority="33" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="96" priority="34" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="30" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="29" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="28" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="92" priority="24" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="91" priority="25" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="90" priority="26" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="89" priority="27" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="23" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="22" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="21" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E20">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="85" priority="17" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="84" priority="18" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="83" priority="19" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="82" priority="20" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="16" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="15" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="14" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F20">
-    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="78" priority="10" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="77" priority="11" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="76" priority="12" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="75" priority="13" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="9" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="8" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="7" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G20">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:G20">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="nt">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="nt">
       <formula>NOT(ISERROR(SEARCH("nt",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"nt"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1885,89 +2337,87 @@
   <dimension ref="F9:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F9" sqref="F9:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
     </row>
     <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
     </row>
     <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestao-de-Biblioteca\Documentacao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
   <si>
     <t>Paginas</t>
   </si>
@@ -160,16 +155,31 @@
     <t>f - feito</t>
   </si>
   <si>
-    <t>u endereco?</t>
-  </si>
-  <si>
-    <t>chelene</t>
-  </si>
-  <si>
-    <t>joss</t>
-  </si>
-  <si>
-    <t>..</t>
+    <t>gabriel</t>
+  </si>
+  <si>
+    <t>traduzir pluign datatable para pt e colocar em todas as tabelas</t>
+  </si>
+  <si>
+    <t>quantidade de exemplares para livro</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Mensagens de suporte</t>
+  </si>
+  <si>
+    <t>mensagens - admin</t>
+  </si>
+  <si>
+    <t>jossias</t>
+  </si>
+  <si>
+    <t>edmilson</t>
+  </si>
+  <si>
+    <t>folenge</t>
   </si>
 </sst>
 </file>
@@ -214,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,12 +251,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -312,11 +328,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,10 +402,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -356,7 +428,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
+  <dxfs count="115">
     <dxf>
       <fill>
         <patternFill>
@@ -374,6 +446,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -402,6 +537,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
@@ -458,6 +663,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -486,6 +754,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
@@ -864,7 +1153,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -878,7 +1188,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -907,223 +1231,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1395,7 +1502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1403,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1554,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1465,7 +1572,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1481,7 +1588,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1493,28 +1600,32 @@
         <v>31</v>
       </c>
       <c r="F4" s="4"/>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>46</v>
+      <c r="F5" s="4"/>
+      <c r="I5" t="s">
+        <v>45</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1525,15 +1636,13 @@
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="I6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1545,9 +1654,12 @@
         <v>5</v>
       </c>
       <c r="F7" s="8"/>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1561,9 +1673,10 @@
         <v>31</v>
       </c>
       <c r="F8" s="10"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1577,7 +1690,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1591,25 +1704,21 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
@@ -1618,14 +1727,12 @@
       <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
@@ -1636,170 +1743,182 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A8:A14"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F20">
-    <cfRule type="containsText" dxfId="106" priority="1" operator="containsText" text="pm">
+  <conditionalFormatting sqref="C2:F21">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="2" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="4" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1810,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1971,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1868,13 +1987,15 @@
       <c r="F2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1888,13 +2009,15 @@
       <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1904,13 +2027,15 @@
         <v>31</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="J4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1918,13 +2043,15 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1936,13 +2063,15 @@
         <v>31</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="J6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1952,10 +2081,12 @@
       <c r="F7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1971,29 +2102,29 @@
       <c r="F8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="G8" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="D9" s="21"/>
       <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2007,10 +2138,12 @@
       <c r="F10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="G10" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2024,10 +2157,12 @@
       <c r="F11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -2041,10 +2176,12 @@
       <c r="F12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="G12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
@@ -2054,10 +2191,12 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
@@ -2069,10 +2208,12 @@
         <v>31</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2088,10 +2229,12 @@
       <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
@@ -2105,10 +2248,12 @@
       <c r="F16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
@@ -2122,10 +2267,12 @@
       <c r="F17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -2137,10 +2284,12 @@
         <v>31</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
@@ -2150,10 +2299,12 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
@@ -2167,7 +2318,12 @@
       <c r="F20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2176,159 +2332,89 @@
     <mergeCell ref="A15:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="102" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="47" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="101" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="46" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="100" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="45" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C20">
-    <cfRule type="containsText" dxfId="99" priority="31" operator="containsText" text="pm">
+  <conditionalFormatting sqref="C2:F8 C10:F20">
+    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="32" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="13" priority="42" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="33" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="12" priority="43" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="34" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="11" priority="44" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="95" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="40" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="94" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="39" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="93" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="38" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="92" priority="24" operator="containsText" text="pm">
-      <formula>NOT(ISERROR(SEARCH("pm",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="25" operator="containsText" text="u">
-      <formula>NOT(ISERROR(SEARCH("u",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="26" operator="containsText" text="f">
-      <formula>NOT(ISERROR(SEARCH("f",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="27" operator="containsText" text="ep">
-      <formula>NOT(ISERROR(SEARCH("ep",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="88" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="87" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="86" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E20">
-    <cfRule type="containsText" dxfId="85" priority="17" operator="containsText" text="pm">
-      <formula>NOT(ISERROR(SEARCH("pm",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="18" operator="containsText" text="u">
-      <formula>NOT(ISERROR(SEARCH("u",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="19" operator="containsText" text="f">
-      <formula>NOT(ISERROR(SEARCH("f",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="20" operator="containsText" text="ep">
-      <formula>NOT(ISERROR(SEARCH("ep",E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="81" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="80" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="79" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F20">
-    <cfRule type="containsText" dxfId="78" priority="10" operator="containsText" text="pm">
-      <formula>NOT(ISERROR(SEARCH("pm",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="11" operator="containsText" text="u">
-      <formula>NOT(ISERROR(SEARCH("u",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="12" operator="containsText" text="f">
-      <formula>NOT(ISERROR(SEARCH("f",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="13" operator="containsText" text="ep">
-      <formula>NOT(ISERROR(SEARCH("ep",F2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="74" priority="9" operator="equal">
-      <formula>"EP"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="73" priority="8" operator="equal">
-      <formula>"U"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="72" priority="7" operator="equal">
-      <formula>"PM"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G20">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="pm">
-      <formula>NOT(ISERROR(SEARCH("pm",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="u">
-      <formula>NOT(ISERROR(SEARCH("u",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="f">
-      <formula>NOT(ISERROR(SEARCH("f",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="ep">
-      <formula>NOT(ISERROR(SEARCH("ep",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:G20">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="nt">
+  <conditionalFormatting sqref="C2:F8 C10:F20">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="nt">
       <formula>NOT(ISERROR(SEARCH("nt",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"nt"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2337,87 +2423,87 @@
   <dimension ref="F9:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:P13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="F9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
   <si>
     <t>Paginas</t>
   </si>
@@ -29,9 +29,6 @@
     <t>desenvolvedor</t>
   </si>
   <si>
-    <t>construir interfaces para gerir exemplares emprestados e disponiveis</t>
-  </si>
-  <si>
     <t xml:space="preserve">por fazer </t>
   </si>
   <si>
@@ -158,18 +155,9 @@
     <t>gabriel</t>
   </si>
   <si>
-    <t>traduzir pluign datatable para pt e colocar em todas as tabelas</t>
-  </si>
-  <si>
-    <t>quantidade de exemplares para livro</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Mensagens de suporte</t>
-  </si>
-  <si>
     <t>mensagens - admin</t>
   </si>
   <si>
@@ -180,6 +168,12 @@
   </si>
   <si>
     <t>folenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mover interfaces para a pasta view : </t>
+  </si>
+  <si>
+    <t>falta campo de quantidade e exemplares  didponiveis na tabela de livros</t>
   </si>
 </sst>
 </file>
@@ -393,42 +387,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -601,636 +595,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1502,7 +866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1512,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,148 +893,142 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>9</v>
+      <c r="A2" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4"/>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
       <c r="J5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4"/>
       <c r="I6" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>17</v>
+      <c r="A8" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="10"/>
       <c r="I8" s="13"/>
@@ -1678,39 +1036,39 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1718,173 +1076,173 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1946,384 +1304,384 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>9</v>
+      <c r="A2" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>17</v>
+      <c r="A8" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2429,81 +1787,81 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+      <c r="F9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
     </row>
     <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
     </row>
     <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
   <si>
     <t>Paginas</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>falta campo de quantidade e exemplares  didponiveis na tabela de livros</t>
+  </si>
+  <si>
+    <t>Data Limite</t>
+  </si>
+  <si>
+    <t>Nota: O nao comprimento da data limite acareta um defice de 25% do valor estipulado para cada elemento</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,6 +424,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -876,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,6 +896,7 @@
     <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1145,7 +1154,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -1160,8 +1169,11 @@
       <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="26">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
@@ -1175,7 +1187,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
@@ -1189,7 +1201,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
@@ -1203,7 +1215,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
         <v>29</v>
@@ -1215,32 +1227,32 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -1287,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1311,7 @@
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1324,6 +1337,9 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="H1" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="J1" s="12" t="s">
         <v>37</v>
       </c>
@@ -1347,6 +1363,9 @@
       </c>
       <c r="G2" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="H2" s="26">
+        <v>43595</v>
       </c>
       <c r="J2" t="s">
         <v>38</v>
@@ -1370,6 +1389,9 @@
       <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H3" s="26">
+        <v>43595</v>
+      </c>
       <c r="J3" t="s">
         <v>39</v>
       </c>
@@ -1387,6 +1409,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="H4" s="26">
+        <v>43595</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
@@ -1404,6 +1429,9 @@
       <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H5" s="26">
+        <v>43595</v>
+      </c>
       <c r="J5" t="s">
         <v>40</v>
       </c>
@@ -1424,6 +1452,9 @@
       <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H6" s="26">
+        <v>43595</v>
+      </c>
       <c r="J6" t="s">
         <v>41</v>
       </c>
@@ -1442,6 +1473,9 @@
       <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H7" s="26">
+        <v>43595</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -1462,6 +1496,9 @@
       </c>
       <c r="G8" s="10" t="s">
         <v>47</v>
+      </c>
+      <c r="H8" s="26">
+        <v>43595</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1480,6 +1517,9 @@
       <c r="G9" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="H9" s="26">
+        <v>43595</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
@@ -1499,6 +1539,9 @@
       <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="H10" s="26">
+        <v>43595</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
@@ -1518,6 +1561,9 @@
       <c r="G11" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="H11" s="26">
+        <v>43595</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
@@ -1536,6 +1582,9 @@
       </c>
       <c r="G12" s="4" t="s">
         <v>46</v>
+      </c>
+      <c r="H12" s="26">
+        <v>43595</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1552,6 +1601,9 @@
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="H13" s="26">
+        <v>43595</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
@@ -1569,6 +1621,9 @@
       <c r="G14" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="H14" s="26">
+        <v>43595</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
@@ -1589,6 +1644,9 @@
       </c>
       <c r="G15" s="7" t="s">
         <v>48</v>
+      </c>
+      <c r="H15" s="26">
+        <v>43595</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1609,8 +1667,11 @@
       <c r="G16" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="26">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -1628,8 +1689,11 @@
       <c r="G17" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="26">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>26</v>
@@ -1645,8 +1709,11 @@
       <c r="G18" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="26">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>28</v>
@@ -1660,8 +1727,11 @@
       <c r="G19" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="26">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>29</v>
@@ -1679,9 +1749,17 @@
       <c r="G20" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="26">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestao-de-Biblioteca\Documentacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="52">
   <si>
     <t>Paginas</t>
   </si>
@@ -174,6 +179,9 @@
   </si>
   <si>
     <t>falta campo de quantidade e exemplares  didponiveis na tabela de livros</t>
+  </si>
+  <si>
+    <t>u - urgente</t>
   </si>
 </sst>
 </file>
@@ -866,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -876,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1298,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1357,7 @@
         <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
   <si>
     <t>Paginas</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Nota: O nao comprimento da data limite acareta um defice de 25% do valor estipulado para cada elemento</t>
+  </si>
+  <si>
+    <t>pm</t>
   </si>
 </sst>
 </file>
@@ -397,6 +400,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,8 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,7 +877,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -927,7 +930,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -945,7 +948,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -961,7 +964,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -978,7 +981,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -995,7 +998,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1015,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1029,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1043,7 +1046,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1060,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1071,7 +1074,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1083,7 +1086,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1100,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1111,7 +1114,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1125,7 +1128,7 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1142,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1155,7 +1158,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1169,12 +1172,12 @@
       <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1188,7 +1191,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -1202,7 +1205,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1216,7 +1219,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1302,7 +1305,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1340,7 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="16" t="s">
         <v>51</v>
       </c>
       <c r="J1" s="12" t="s">
@@ -1345,7 +1348,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1364,7 +1367,7 @@
       <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="17">
         <v>43595</v>
       </c>
       <c r="J2" t="s">
@@ -1372,7 +1375,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1389,7 +1392,7 @@
       <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="17">
         <v>43595</v>
       </c>
       <c r="J3" t="s">
@@ -1397,7 +1400,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1410,7 +1413,7 @@
       <c r="G4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="17">
         <v>43595</v>
       </c>
       <c r="J4" t="s">
@@ -1418,7 +1421,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1429,7 +1432,7 @@
       <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="17">
         <v>43595</v>
       </c>
       <c r="J5" t="s">
@@ -1437,7 +1440,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1452,7 +1455,7 @@
       <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="17">
         <v>43595</v>
       </c>
       <c r="J6" t="s">
@@ -1460,7 +1463,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1473,12 +1476,12 @@
       <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1497,12 +1500,12 @@
       <c r="G8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1517,12 +1520,12 @@
       <c r="G9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1539,12 +1542,12 @@
       <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1561,16 +1564,18 @@
       <c r="G11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1583,12 +1588,12 @@
       <c r="G12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1601,12 +1606,12 @@
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1621,12 +1626,12 @@
       <c r="G14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1645,12 +1650,12 @@
       <c r="G15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1667,12 +1672,12 @@
       <c r="G16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1689,12 +1694,12 @@
       <c r="G17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1709,12 +1714,12 @@
       <c r="G18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1727,12 +1732,12 @@
       <c r="G19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="17">
         <v>43595</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1749,7 +1754,7 @@
       <c r="G20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="17">
         <v>43595</v>
       </c>
     </row>
@@ -1865,81 +1870,81 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="F9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
     </row>
     <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
   <si>
     <t>Paginas</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Data Limite</t>
-  </si>
-  <si>
-    <t>Nota: O nao comprimento da data limite acareta um defice de 25% do valor estipulado para cada elemento</t>
   </si>
   <si>
     <t>pm</t>
@@ -877,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1302,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,9 +1570,7 @@
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1613,9 @@
       <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1760,11 +1757,6 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PROJECTOS\Gestao-de-Biblioteca\Documentacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="51">
   <si>
     <t>Paginas</t>
   </si>
@@ -180,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +221,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -368,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,6 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,7 +878,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -876,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1289,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,16 +1347,12 @@
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
@@ -1424,6 +1432,7 @@
       <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="I6" s="25"/>
       <c r="J6" t="s">
         <v>41</v>
       </c>

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestao-de-Biblioteca\Documentacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="52">
   <si>
     <t>Paginas</t>
   </si>
@@ -176,10 +181,7 @@
     <t>falta campo de quantidade e exemplares  didponiveis na tabela de livros</t>
   </si>
   <si>
-    <t>Data Limite</t>
-  </si>
-  <si>
-    <t>pm</t>
+    <t>u - urgente</t>
   </si>
 </sst>
 </file>
@@ -374,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,8 +399,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +896,6 @@
     <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -927,7 +926,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -945,7 +944,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -961,7 +960,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -978,7 +977,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -995,7 +994,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1011,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1025,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1043,7 +1042,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1056,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1071,7 +1070,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1083,7 +1082,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1096,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1111,7 +1110,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1125,7 +1124,7 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1138,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1154,8 +1153,8 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1169,12 +1168,9 @@
       <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="17">
-        <v>43595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1187,8 +1183,8 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -1201,8 +1197,8 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1215,8 +1211,8 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1227,32 +1223,32 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -1301,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1307,6 @@
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1337,15 +1332,12 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="J1" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1364,15 +1356,12 @@
       <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="17">
-        <v>43595</v>
-      </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1389,15 +1378,12 @@
       <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="17">
-        <v>43595</v>
-      </c>
       <c r="J3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1410,15 +1396,12 @@
       <c r="G4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="17">
-        <v>43595</v>
-      </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1429,15 +1412,12 @@
       <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="17">
-        <v>43595</v>
-      </c>
       <c r="J5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1452,15 +1432,12 @@
       <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="17">
-        <v>43595</v>
-      </c>
       <c r="J6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1473,12 +1450,9 @@
       <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="17">
-        <v>43595</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1497,12 +1471,9 @@
       <c r="G8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="17">
-        <v>43595</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1517,12 +1488,9 @@
       <c r="G9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="17">
-        <v>43595</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1539,12 +1507,9 @@
       <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="17">
-        <v>43595</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1561,12 +1526,9 @@
       <c r="G11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="17">
-        <v>43595</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1583,12 +1545,9 @@
       <c r="G12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="17">
-        <v>43595</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1601,21 +1560,16 @@
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="17">
-        <v>43595</v>
-      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1623,12 +1577,9 @@
       <c r="G14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="17">
-        <v>43595</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1647,12 +1598,9 @@
       <c r="G15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="17">
-        <v>43595</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1669,12 +1617,9 @@
       <c r="G16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="17">
-        <v>43595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1691,12 +1636,9 @@
       <c r="G17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="17">
-        <v>43595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1711,12 +1653,9 @@
       <c r="G18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="17">
-        <v>43595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1729,12 +1668,9 @@
       <c r="G19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="17">
-        <v>43595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1751,11 +1687,8 @@
       <c r="G20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="17">
-        <v>43595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
     </row>
   </sheetData>
@@ -1862,81 +1795,81 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="F9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
     </row>
     <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
     </row>
     <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="52">
   <si>
     <t>Paginas</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Data Limite</t>
-  </si>
-  <si>
-    <t>pm</t>
   </si>
 </sst>
 </file>
@@ -874,7 +871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1302,7 +1299,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1567,9 @@
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>30</v>

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="53">
   <si>
     <t>Paginas</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Data Limite</t>
+  </si>
+  <si>
+    <t>pm</t>
   </si>
 </sst>
 </file>
@@ -871,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1299,7 +1302,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
@@ -1594,9 +1597,15 @@
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1618,7 +1627,9 @@
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G14" s="8" t="s">
         <v>46</v>
       </c>

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestao-de-Biblioteca\Documentacao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="53">
   <si>
     <t>Paginas</t>
   </si>
@@ -181,7 +176,10 @@
     <t>falta campo de quantidade e exemplares  didponiveis na tabela de livros</t>
   </si>
   <si>
-    <t>u - urgente</t>
+    <t>Data Limite</t>
+  </si>
+  <si>
+    <t>pm</t>
   </si>
 </sst>
 </file>
@@ -376,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,6 +397,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,6 +896,7 @@
     <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -926,7 +927,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -944,7 +945,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -960,7 +961,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -977,7 +978,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -994,7 +995,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1011,7 +1012,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1026,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1042,7 +1043,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1057,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1071,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1082,7 +1083,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1096,7 +1097,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1111,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1124,7 +1125,7 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1138,7 +1139,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1153,8 +1154,8 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1168,9 +1169,12 @@
       <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="G17" s="17">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1183,8 +1187,8 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -1197,8 +1201,8 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1211,8 +1215,8 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1223,32 +1227,32 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -1297,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,6 +1311,7 @@
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1332,12 +1337,15 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="H1" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="J1" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1356,12 +1364,15 @@
       <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H2" s="17">
+        <v>43595</v>
+      </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1378,12 +1389,15 @@
       <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H3" s="17">
+        <v>43595</v>
+      </c>
       <c r="J3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1396,12 +1410,15 @@
       <c r="G4" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H4" s="17">
+        <v>43595</v>
+      </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1412,12 +1429,15 @@
       <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H5" s="17">
+        <v>43595</v>
+      </c>
       <c r="J5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1432,12 +1452,15 @@
       <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H6" s="17">
+        <v>43595</v>
+      </c>
       <c r="J6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1450,9 +1473,12 @@
       <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H7" s="17">
+        <v>43595</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1471,9 +1497,12 @@
       <c r="G8" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="H8" s="17">
+        <v>43595</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1488,9 +1517,12 @@
       <c r="G9" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="H9" s="17">
+        <v>43595</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1507,9 +1539,12 @@
       <c r="G10" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="H10" s="17">
+        <v>43595</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1526,13 +1561,18 @@
       <c r="G11" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="H11" s="17">
+        <v>43595</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1545,41 +1585,60 @@
       <c r="G12" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="H12" s="17">
+        <v>43595</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="H13" s="17">
+        <v>43595</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G14" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="H14" s="17">
+        <v>43595</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1598,9 +1657,12 @@
       <c r="G15" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="H15" s="17">
+        <v>43595</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1617,9 +1679,12 @@
       <c r="G16" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="H16" s="17">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1636,9 +1701,12 @@
       <c r="G17" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="H17" s="17">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1653,9 +1721,12 @@
       <c r="G18" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="H18" s="17">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1668,9 +1739,12 @@
       <c r="G19" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="H19" s="17">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1687,8 +1761,11 @@
       <c r="G20" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="17">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
     </row>
   </sheetData>
@@ -1795,81 +1872,81 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="F9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
     </row>
     <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestao-de-Biblioteca\Documentacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="53">
   <si>
     <t>Paginas</t>
   </si>
@@ -874,7 +879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1302,7 +1307,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1693,9 @@
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1713,7 +1720,9 @@
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>30</v>
       </c>

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -179,7 +179,7 @@
     <t>Data Limite</t>
   </si>
   <si>
-    <t>pm</t>
+    <t>pm(validacoes)</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,13 +1598,13 @@
         <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>46</v>

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestao-de-Biblioteca\Documentacao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="56">
   <si>
     <t>Paginas</t>
   </si>
@@ -185,13 +180,22 @@
   </si>
   <si>
     <t>pm</t>
+  </si>
+  <si>
+    <t>validacoes de creates e updates no backend</t>
+  </si>
+  <si>
+    <t>mensagens de confirmacao</t>
+  </si>
+  <si>
+    <t>algumas implementacoes por melhorar:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +228,13 @@
     <font>
       <sz val="72"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -379,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,6 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,7 +891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1304,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1568,9 @@
       <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1603,13 +1617,13 @@
         <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>46</v>
@@ -1633,7 +1647,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>46</v>
@@ -1776,6 +1790,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -415,6 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,7 +443,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,7 +891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +944,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -962,7 +962,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1029,7 +1029,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1060,7 +1060,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1172,7 +1172,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1191,7 +1191,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1362,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1389,7 +1389,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1414,7 +1414,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1477,7 +1477,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1539,7 +1539,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1561,7 +1561,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1585,12 +1585,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
@@ -1609,7 +1609,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1633,7 +1633,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1767,7 +1767,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1792,10 +1792,10 @@
       <c r="A21" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1911,81 +1911,81 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="F9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
     </row>
     <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
     </row>
     <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="56">
   <si>
     <t>Paginas</t>
   </si>
@@ -240,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +268,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,7 +406,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,7 +440,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -944,7 +979,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -962,7 +997,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -978,7 +1013,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -995,7 +1030,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1012,7 +1047,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1029,7 +1064,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1043,7 +1078,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1060,7 +1095,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1109,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1088,7 +1123,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
@@ -1100,7 +1135,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1114,7 +1149,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1128,7 +1163,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1142,7 +1177,7 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1156,7 +1191,7 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1172,7 +1207,7 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1186,12 +1221,12 @@
       <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1205,7 +1240,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -1219,7 +1254,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1233,7 +1268,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1281,31 +1316,31 @@
     <mergeCell ref="A8:A15"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:F21">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1318,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1389,7 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>51</v>
       </c>
       <c r="J1" s="12" t="s">
@@ -1362,7 +1397,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1381,7 +1416,7 @@
       <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>43595</v>
       </c>
       <c r="J2" t="s">
@@ -1389,7 +1424,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1406,7 +1441,7 @@
       <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>43595</v>
       </c>
       <c r="J3" t="s">
@@ -1414,7 +1449,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1427,7 +1462,7 @@
       <c r="G4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>43595</v>
       </c>
       <c r="J4" t="s">
@@ -1435,7 +1470,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1446,7 +1481,7 @@
       <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>43595</v>
       </c>
       <c r="J5" t="s">
@@ -1454,7 +1489,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1504,7 @@
       <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>43595</v>
       </c>
       <c r="J6" t="s">
@@ -1477,7 +1512,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1490,12 +1525,12 @@
       <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>43595</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1511,39 +1546,45 @@
       <c r="F8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="17">
+        <v>46</v>
+      </c>
+      <c r="H9" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>30</v>
       </c>
@@ -1553,15 +1594,15 @@
       <c r="F10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1580,12 +1621,12 @@
       <c r="G11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1604,12 +1645,12 @@
       <c r="G12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1628,12 +1669,12 @@
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1652,12 +1693,12 @@
       <c r="G14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1676,12 +1717,12 @@
       <c r="G15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1698,12 +1739,12 @@
       <c r="G16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1722,12 +1763,12 @@
       <c r="G17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1744,12 +1785,12 @@
       <c r="G18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1762,12 +1803,12 @@
       <c r="G19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <v>43595</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1784,7 +1825,7 @@
       <c r="G20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>43595</v>
       </c>
     </row>
@@ -1792,10 +1833,10 @@
       <c r="A21" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1814,84 +1855,84 @@
     <mergeCell ref="A15:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="17" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="16" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="46" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="15" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="45" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F8 C10:F20">
-    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="pm">
+  <conditionalFormatting sqref="C2:F20">
+    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="42" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="19" priority="42" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="43" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="44" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="17" priority="44" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="10" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="40" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="9" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="39" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="8" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="38" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="25" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:F8 C10:F20">
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="nt">
+  <conditionalFormatting sqref="C2:F20">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="nt">
       <formula>NOT(ISERROR(SEARCH("nt",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"nt"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1911,81 +1952,81 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F9" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
+      <c r="F9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
     </row>
     <row r="13" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16992" windowHeight="7750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="front-end" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="56">
   <si>
     <t>Paginas</t>
   </si>
@@ -440,49 +440,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -926,7 +884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -940,19 +898,19 @@
       <selection activeCell="A8" sqref="A8:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.850000000000001" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -978,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
@@ -996,7 +954,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -1012,7 +970,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
@@ -1029,7 +987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
@@ -1046,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -1063,7 +1021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
@@ -1077,7 +1035,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1052,7 @@
       <c r="F8" s="10"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
@@ -1108,7 +1066,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -1122,7 +1080,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>45</v>
@@ -1134,7 +1092,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>18</v>
@@ -1148,7 +1106,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>19</v>
@@ -1162,7 +1120,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
@@ -1176,7 +1134,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -1190,7 +1148,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
@@ -1206,7 +1164,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -1225,7 +1183,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
@@ -1239,7 +1197,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
@@ -1253,7 +1211,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>28</v>
@@ -1267,7 +1225,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>29</v>
@@ -1279,32 +1237,32 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="18.350000000000001" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -1316,31 +1274,31 @@
     <mergeCell ref="A8:A15"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:F21">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1354,20 +1312,20 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.850000000000001" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1354,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
@@ -1423,7 +1381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -1448,7 +1406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
@@ -1469,7 +1427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
@@ -1488,7 +1446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -1511,7 +1469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>13</v>
@@ -1529,7 +1487,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>16</v>
       </c>
@@ -1539,7 +1497,9 @@
       <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
@@ -1553,7 +1513,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
@@ -1577,7 +1537,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -1601,7 +1561,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -1625,7 +1585,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -1649,7 +1609,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
@@ -1673,7 +1633,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="8" t="s">
         <v>22</v>
@@ -1697,7 +1657,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1721,7 +1681,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>31</v>
@@ -1743,7 +1703,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -1767,7 +1727,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>26</v>
@@ -1789,7 +1749,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>28</v>
@@ -1807,7 +1767,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>29</v>
@@ -1832,18 +1792,18 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="17"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1855,84 +1815,84 @@
     <mergeCell ref="A15:A20"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="47" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="22" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="46" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="cellIs" dxfId="21" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="45" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:F20">
-    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="pm">
+    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="pm">
       <formula>NOT(ISERROR(SEARCH("pm",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="42" operator="containsText" text="u">
+    <cfRule type="containsText" dxfId="13" priority="42" operator="containsText" text="u">
       <formula>NOT(ISERROR(SEARCH("u",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="f">
+    <cfRule type="containsText" dxfId="12" priority="43" operator="containsText" text="f">
       <formula>NOT(ISERROR(SEARCH("f",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="44" operator="containsText" text="ep">
+    <cfRule type="containsText" dxfId="11" priority="44" operator="containsText" text="ep">
       <formula>NOT(ISERROR(SEARCH("ep",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="16" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="40" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="15" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="39" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="14" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="38" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="12" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
       <formula>"EP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="9" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
       <formula>"U"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:F20">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="nt">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="nt">
       <formula>NOT(ISERROR(SEARCH("nt",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"nt"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1949,9 +1909,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="9" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F9" s="25" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +1928,7 @@
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
     </row>
-    <row r="10" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1983,7 +1943,7 @@
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
     </row>
-    <row r="11" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1998,7 +1958,7 @@
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
     </row>
-    <row r="12" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -2013,7 +1973,7 @@
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
     </row>
-    <row r="13" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>

--- a/Documentacao/actividades.xlsx
+++ b/Documentacao/actividades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gestao-de-Biblioteca\Documentacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="56">
   <si>
     <t>Paginas</t>
   </si>
@@ -891,7 +896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1318,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1671,9 @@
       <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
       </c>
@@ -1740,7 +1747,9 @@
       <c r="E18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1756,9 +1765,15 @@
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G19" s="7" t="s">
         <v>48</v>
       </c>
